--- a/mat_502.xlsx
+++ b/mat_502.xlsx
@@ -14,43 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Classificação</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nome</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>EXCEDENTES</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -204,6 +168,12 @@
       </rPr>
       <t>CAMILA DIAS DE SOUSA</t>
     </r>
+  </si>
+  <si>
+    <t>EXCEDENTES</t>
+  </si>
+  <si>
+    <t>FIM - MATEMÂTICA</t>
   </si>
 </sst>
 </file>
@@ -233,15 +203,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000009"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF000009"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -310,30 +280,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -649,133 +616,132 @@
     <col min="3" max="3" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>177</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>178</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>179</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>180</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>181</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>182</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>183</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>184</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>185</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>186</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>187</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>188</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>189</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>190</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>177</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>178</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>179</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>180</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>181</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>182</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>183</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>184</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>185</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>186</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>187</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>188</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>189</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>190</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mat_502.xlsx
+++ b/mat_502.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 5" sheetId="5" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -18,169 +18,180 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RAFAEL JOSÉ PEREIRA VIEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MARIA DA GLORIA MOREIRA MACHADO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PAULO RAIMUNDO VIEIRA DA SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RITA APARECIDA TEIXEIRA DO PRADO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TULIO PEREIRA NEIVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LAIR MAGALDI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ANA PAULA FERREIRA PARREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LYLIANE DRUMOND LANZA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RENATA FLAVIA DOS SANTOS SERVO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DAVI SALOMÃO PESSOA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>JOEL LAMAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TATIANE SOARES DE CARVALHO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RAFAEL DE OLIVEIRA MARCELINO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CAMILA DIAS DE SOUSA</t>
-    </r>
-  </si>
-  <si>
-    <t>EXCEDENTES</t>
-  </si>
-  <si>
-    <t>FIM - MATEMÂTICA</t>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PRISCILA MOREIRA SANTA ANNA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MARIANA MALTA DE FARIAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DANIELE PIRES MAGALHÃES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HELOISA FRANCISCA MATOS TOLEDO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MARIANA BATISTA SOUZA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PEDRO HENRIQUE FAZZA STROPPA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>YOHANA HELENA SILVA DA SILVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LETÍCIA GENEVAIN ANDRADE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>JOÃO VICTOR DE SOUZA MACHADO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LUCIENE VIEIRA PIRES SIMÃO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ARÍSIA BARDELIM NASCIMENTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PATRICK RIBEIRO RODRIGUES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DANIEL JOSÉ DE PAULA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FREDERICO XAVIER DE ALMEIDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAMUEL DO NASCIMENTO SILVERIO</t>
+    </r>
+  </si>
+  <si>
+    <t>Fim Matematica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -188,48 +199,25 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000009"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000009"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -266,10 +254,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -280,27 +300,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,6 +328,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -603,145 +623,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="101.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="58.1640625" customWidth="1"/>
+    <col min="3" max="5" width="1.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>177</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30.95" customHeight="1">
+      <c r="A1" s="4">
+        <v>191</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1">
+      <c r="A2" s="5">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>178</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:2" ht="30" customHeight="1">
+      <c r="A3" s="5">
+        <v>193</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>179</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:2" ht="30" customHeight="1">
+      <c r="A4" s="5">
+        <v>194</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>180</v>
+    <row r="5" spans="1:2" ht="30" customHeight="1">
+      <c r="A5" s="5">
+        <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>181</v>
+    <row r="6" spans="1:2" ht="30" customHeight="1">
+      <c r="A6" s="5">
+        <v>196</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>182</v>
+    <row r="7" spans="1:2" ht="30" customHeight="1">
+      <c r="A7" s="5">
+        <v>197</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>183</v>
+    <row r="8" spans="1:2" ht="30" customHeight="1">
+      <c r="A8" s="5">
+        <v>198</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>184</v>
+    <row r="9" spans="1:2" ht="30" customHeight="1">
+      <c r="A9" s="5">
+        <v>199</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>185</v>
+    </row>
+    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="A10" s="5">
+        <v>200</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>186</v>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="5">
+        <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>187</v>
+    <row r="12" spans="1:2" ht="30" customHeight="1">
+      <c r="A12" s="5">
+        <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>188</v>
+    <row r="13" spans="1:2" ht="30" customHeight="1">
+      <c r="A13" s="5">
+        <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>189</v>
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="5">
+        <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>190</v>
+    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="A15" s="5">
+        <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>